--- a/RYP data/ryp_student_database_200hr.xlsx
+++ b/RYP data/ryp_student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,12 +704,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maria Stadler</t>
+          <t>Patricia Vang Nielsen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -717,12 +717,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Patriciavn884@gmail.com</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -764,7 +772,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>31-Oct-2024</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
@@ -775,7 +783,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -784,7 +792,11 @@
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>she has a small injury in my right shoulder from an old yoga retreat</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>1</t>
@@ -809,12 +821,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sarah Lober</t>
+          <t>Maria Stadler</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -822,16 +834,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>lober.sarah@gmx.de</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -847,10 +855,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -880,10 +892,14 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
@@ -910,12 +926,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alina Iuga</t>
+          <t>Sarah Lober</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -925,7 +941,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>alinaiuga2@gmail.com</t>
+          <t>lober.sarah@gmx.de</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -937,7 +953,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -948,14 +964,10 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Direct (ex student)</t>
-        </is>
-      </c>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -964,7 +976,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -972,21 +984,25 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>28-Oct-2024</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Originally booked in 2023</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>1</t>
@@ -1011,12 +1027,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Julie Hollard</t>
+          <t>Alina Iuga</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1026,7 +1042,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>hollardjulie@gmail.com</t>
+          <t>alinaiuga2@gmail.com</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -1044,7 +1060,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1054,7 +1070,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -1073,25 +1089,21 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>26-Oct-2024</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>2350</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Originally booked in 2023</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>1</t>
@@ -1116,12 +1128,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dani Bass</t>
+          <t>Julie Hollard</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1131,15 +1143,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dani.bass@btinternet.com</t>
+          <t>hollardjulie@gmail.com</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1153,7 +1161,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1179,28 +1187,28 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>26-Oct-2024</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Bank transfer made</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
           <t>1</t>
@@ -1225,12 +1233,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vyla Carter</t>
+          <t>Dani Bass</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1238,17 +1246,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dani.bass@btinternet.com</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -1275,31 +1291,31 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>14-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
+          <t>Bank transfer made</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1326,12 +1342,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Katrina Di</t>
+          <t>Vyla Carter</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1339,25 +1355,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Katrinadin@gmail.com</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1384,12 +1392,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2746.24</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1400,19 +1408,15 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>additional night on the 16th of February</t>
+          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1439,25 +1443,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 5</t>
+          <t>Katrina Di</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Katrinadin@gmail.com</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1494,24 +1506,32 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2746.24</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>additional night on the 16th of February</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>1</t>
@@ -1536,12 +1556,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 3</t>
+          <t>Samin Yoga Gp 4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1559,7 +1579,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1586,7 +1606,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1602,7 +1622,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1633,12 +1653,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 2</t>
+          <t>Samin Yoga Gp 3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1730,12 +1750,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 1</t>
+          <t>Samin Yoga Gp 2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1827,17 +1847,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 4</t>
+          <t>Samin Yoga Gp 5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1924,12 +1944,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chloe Holden</t>
+          <t>Samantha (with dghtr)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1937,21 +1957,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>chloeholden1402@gmail.com</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1962,7 +1978,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1978,40 +1994,32 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>12-Oct-2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
+      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
@@ -2150,12 +2158,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Samantha (with dghtr)</t>
+          <t>Amalia Sepan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2163,20 +2171,32 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Partner // Sharing Room</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>No</t>
@@ -2200,33 +2220,41 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12-Oct-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
+          <t>1717.75</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
           <t>1</t>
@@ -2251,33 +2279,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jan Röttgen</t>
+          <t>Samin Yoga Gp 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Capeman2110@gmail.com</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2314,30 +2334,22 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1717.75</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
@@ -2586,22 +2598,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Amalia Sepan</t>
+          <t>Jan Röttgen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+          <t>Capeman2110@gmail.com</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -2620,11 +2632,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Partner // Sharing Room</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>No</t>
@@ -2678,11 +2686,7 @@
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
           <t>1</t>
@@ -3050,12 +3054,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Maddison Ball</t>
+          <t>Chloe Holden</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3063,20 +3067,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>+44 7958 032112</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>chloeholden1402@gmail.com</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3113,27 +3113,35 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
@@ -3149,22 +3157,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nathalia Ramirez</t>
+          <t>Maddison Ball</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3172,16 +3180,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>nathy924@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>+44 7958 032112</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3189,11 +3201,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>No</t>
@@ -3206,7 +3214,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3227,7 +3235,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>10-Aug-2024</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3238,28 +3246,20 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank transfer</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
-        </is>
-      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
@@ -3276,29 +3276,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Gabriel Campaner Bascuñana</t>
+          <t>Nathalia Ramirez</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>GabrielCampanerCoach@gmail.com</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>3460387145</t>
-        </is>
-      </c>
+          <t>nathy924@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -3310,7 +3306,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>No</t>
@@ -3321,7 +3321,11 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3335,22 +3339,34 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>28 September 2024</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Hold until 29.10</t>
+          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3377,25 +3393,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nicole Dubinin</t>
+          <t>Gabriel Campaner Bascuñana</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>GabrielCampanerCoach@gmail.com</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3460387145</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -3418,11 +3438,7 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3436,30 +3452,22 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>16 October 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Nicoledubinin9@gmail.com</t>
+          <t>Hold until 29.10</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3486,12 +3494,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kristhianne Cid de León </t>
+          <t>Nicole Dubinin</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3499,12 +3507,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3525,7 +3537,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3546,7 +3558,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>16 October 2024</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3555,16 +3567,16 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+          <t>Nicoledubinin9@gmail.com</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3591,12 +3603,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jessica Eryeti Dy</t>
+          <t xml:space="preserve">Kristhianne Cid de León </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3604,16 +3616,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>jessicaedy.work@gmail.com</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3634,7 +3642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -3655,7 +3663,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>7-Sep-2024</t>
+          <t>10-Jul-2024</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -3664,16 +3672,16 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3700,29 +3708,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ben McDonald-Stuart</t>
+          <t>Jessica Eryeti Dy</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>jessicaedy.work@gmail.com</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3731,7 +3739,11 @@
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3739,7 +3751,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3760,7 +3772,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>20-Sep</t>
+          <t>7-Sep-2024</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -3771,16 +3783,16 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
           <t>2</t>
@@ -3805,12 +3817,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jonathan Saldarriaga</t>
+          <t>Ben McDonald-Stuart</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3818,20 +3830,16 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Jonathan0391@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>+4917664828174</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3839,16 +3847,8 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>20-Sep</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -3922,29 +3922,33 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Jonathan Saldarriaga</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Jonathan0391@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>+4917664828174</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3954,7 +3958,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3969,7 +3973,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -3988,7 +3992,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>28 September 2024</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -3997,10 +4005,14 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
@@ -4027,17 +4039,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -4059,7 +4071,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4093,11 +4105,7 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>10-Sep</t>
-        </is>
-      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -4136,24 +4144,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Asaf kehati</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4163,10 +4171,14 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>No</t>
@@ -4190,7 +4202,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -4200,13 +4212,13 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>10-Sep</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -4216,11 +4228,7 @@
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
-        </is>
-      </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
           <t>2</t>
@@ -4245,12 +4253,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Carly Murphy</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4260,7 +4268,11 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4295,7 +4307,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -4303,11 +4315,15 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>10-Aug-2024</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -4319,7 +4335,7 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+          <t>Booking done in early Aug but updated the sheet late</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4346,12 +4362,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4369,7 +4385,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -4396,7 +4412,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4408,7 +4424,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -4418,7 +4434,11 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+        </is>
+      </c>
       <c r="Z37" t="inlineStr">
         <is>
           <t>2</t>
@@ -4443,12 +4463,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Kanan</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4458,11 +4478,7 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4470,7 +4486,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -4490,25 +4506,33 @@
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -4536,12 +4560,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Kanan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4549,21 +4573,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>maren.refert@gmx.com</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -4574,46 +4598,34 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>21 Sep 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -4641,12 +4653,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Anna Stubbs</t>
+          <t>Maren Refert</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4654,21 +4666,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>maren.refert@gmx.com</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -4679,12 +4691,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4695,7 +4707,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4705,18 +4717,18 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19-Aug-2024</t>
+          <t>21 Sep 2024</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -4746,12 +4758,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t>Anna Stubbs</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4759,21 +4771,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -4789,7 +4801,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -4800,23 +4812,23 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>399.31</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>21-Aug-2024</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1700.69</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -4826,11 +4838,7 @@
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
           <t>2</t>
@@ -4845,28 +4853,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bethany Bradbury</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>Ulrike Maier</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>bethanymbradbury@gmail.com</t>
+          <t>maier.ulrike64@gmx.de</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -4878,64 +4890,72 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399.31</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>21-Aug-2024</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700.69</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -4952,22 +4972,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jéssica Schleiermacher</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Bethany Bradbury</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>jessicasimiro@gmail.com</t>
+          <t>bethanymbradbury@gmail.com</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -4986,7 +5002,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4995,11 +5011,7 @@
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
           <t>2750</t>
@@ -5012,7 +5024,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -5057,12 +5069,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tanya Mistry</t>
+          <t>Jéssica Schleiermacher</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5072,19 +5084,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>919820611611</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>jessicasimiro@gmail.com</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -5125,7 +5129,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>31-Aug-2024</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -5136,7 +5140,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -5144,11 +5148,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
+      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Janiya Runaya (DS Ref)</t>
+          <t>Tanya Mistry</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5187,12 +5187,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>919820611611</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5204,16 +5216,20 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr">
         <is>
           <t>2750</t>
@@ -5226,7 +5242,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>31-Aug-2024</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -5235,9 +5251,21 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
@@ -5263,12 +5291,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
+          <t>Janiya Runaya (DS Ref)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5286,7 +5314,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -5305,7 +5333,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -5315,13 +5343,13 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>28-Sep</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -5352,25 +5380,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Gwen Deitz</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>gwendeitz3611@gmail.com</t>
-        </is>
-      </c>
+          <t>Sunita (DS Ref)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5380,8 +5408,16 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
@@ -5396,7 +5432,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>10-Oct-2024</t>
+          <t>1-Sep</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -5405,11 +5441,7 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -5437,25 +5469,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wahiba-YB</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>Gwen Deitz</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>gwendeitz3611@gmail.com</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5465,16 +5497,8 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
@@ -5489,7 +5513,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>10-Oct-2024</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -5498,7 +5522,11 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -5526,12 +5554,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rumera Ash-REF</t>
+          <t>Wahiba-YB</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5549,7 +5577,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -5568,7 +5596,7 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5578,13 +5606,13 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>12-Aug</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -5615,12 +5643,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Rumera Ash-REF</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5638,19 +5666,11 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -5665,7 +5685,7 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -5675,20 +5695,16 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>12-Aug</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -5716,17 +5732,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -5744,7 +5760,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -5817,45 +5833,57 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Monica Milillo</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>monicamilillo02@gmail.com</t>
-        </is>
-      </c>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -5865,18 +5893,18 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>8-Sep-2024</t>
+          <t>9-Jul-2024</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -5906,49 +5934,45 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>Monica Milillo</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>monicamilillo02@gmail.com</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -5958,16 +5982,20 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>8-Sep-2024</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -5985,12 +6013,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6000,7 +6028,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ellie Walters</t>
+          <t>Wahiba daughter-YB</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6008,16 +6036,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6034,15 +6058,11 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
           <t>2100</t>
@@ -6055,7 +6075,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>4-Sep-2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -6064,30 +6084,18 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
@@ -6104,12 +6112,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mia</t>
+          <t>Ellie Walters</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6119,7 +6127,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>miavisualdesign@gmail.com</t>
+          <t>elliewalters98@gmail.com</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -6138,10 +6146,14 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6155,26 +6167,34 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>4-Sep-2024</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>allergic to  walnuts, eggplants, and raw tomatoes</t>
+          <t>elliewalters98@gmail.com</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6201,12 +6221,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Mia</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6214,16 +6234,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>miavisualdesign@gmail.com</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6238,11 +6258,7 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -6256,24 +6272,28 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>15-Sep</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
+        </is>
+      </c>
       <c r="Z56" t="inlineStr">
         <is>
           <t>4</t>
@@ -6298,12 +6318,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
+          <t>Ylenia Votano</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6315,7 +6335,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -6325,7 +6345,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -6348,7 +6368,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6358,13 +6378,13 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>15-Sep</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -6395,12 +6415,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Samantha Foster</t>
+          <t>Mosana Wahibi Rekhi-YB</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6412,12 +6432,12 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -6434,7 +6454,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -6455,7 +6475,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>18-Aug-2024</t>
+          <t>27-Aug</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -6465,17 +6485,9 @@
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
-        </is>
-      </c>
+      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
           <t>4</t>
@@ -6500,12 +6512,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Julia Ben-YB</t>
+          <t>Samantha Foster</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6517,12 +6529,12 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -6539,7 +6551,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -6560,7 +6572,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>18-Aug-2024</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -6570,9 +6582,17 @@
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
+        </is>
+      </c>
       <c r="Z59" t="inlineStr">
         <is>
           <t>4</t>
@@ -6587,22 +6607,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>May 14, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>June 04, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
+          <t>Julia Ben-YB</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6610,29 +6630,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Mgomezjattin95@gmail.com</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6640,7 +6656,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -6651,57 +6667,49 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>1699.43</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>27-Aug</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>400.57</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
-        </is>
-      </c>
+      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>May 14, 2025 to June 04, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>May 14, 2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>June 04, 2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6711,7 +6719,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
+          <t>Melisa gomez jattin</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6719,21 +6727,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Mgomezjattin95@gmail.com</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -6749,14 +6757,10 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>No</t>
@@ -6764,49 +6768,57 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>11-Oct-2024</t>
-        </is>
-      </c>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+          <t>400.57</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
+        </is>
+      </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>May 14, 2025 to June 04, 2025</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>August 05, 2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>August 26, 2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6816,7 +6828,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
+          <t>Lydia May Ward</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -6828,7 +6840,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6838,7 +6850,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -6859,17 +6871,17 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -6879,13 +6891,13 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>10-Jul</t>
+          <t>11-Oct-2024</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -6894,34 +6906,34 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>August 05, 2025 to August 26, 2025</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>November 21, 2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>December 12, 2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
+          <t>Jaina Patel</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6930,20 +6942,20 @@
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>+19179388805</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -6957,12 +6969,24 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -6972,39 +6996,27 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>10-Jul</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
-        </is>
-      </c>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>November 21, 2025 to December 12, 2025</t>
         </is>
       </c>
     </row>
@@ -7021,12 +7033,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Anatta Vela</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7037,7 +7049,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>+491728129488</t>
+          <t>+19179388805</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -7048,7 +7060,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -7067,35 +7079,39 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>12 July 2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7122,25 +7138,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Helena von Keller</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>paul33vigil@gmail.com</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>+491728129488</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
@@ -7168,47 +7184,148 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>12 July 2024</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr">
         <is>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Paul Vigil</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>01-May-2024</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
           <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
+      <c r="Z66" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AA65" t="inlineStr">
+      <c r="AA66" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>

--- a/RYP data/ryp_student_database_200hr.xlsx
+++ b/RYP data/ryp_student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00 1 786 803 2813</t>
+          <t>+17868032813</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patricia Vang Nielsen</t>
+          <t>Maryam Kargar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -719,13 +719,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Patriciavn884@gmail.com</t>
+          <t>maryamkargar23@gmail.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -767,25 +767,17 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>31-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
           <t>No</t>
@@ -794,7 +786,7 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>she has a small injury in my right shoulder from an old yoga retreat</t>
+          <t>hold 08.11</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -821,12 +813,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maria Stadler</t>
+          <t>Patricia Vang Nielsen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -834,12 +826,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Patriciavn884@gmail.com</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>31-Oct-2024</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -901,7 +901,11 @@
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>she has a small injury in my right shoulder from an old yoga retreat</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>1</t>
@@ -926,12 +930,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sarah Lober</t>
+          <t>Maria Stadler</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -939,16 +943,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>lober.sarah@gmx.de</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -964,10 +964,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -997,10 +1001,14 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
@@ -1027,12 +1035,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Alina Iuga</t>
+          <t>Sarah Lober</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1042,10 +1050,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>alinaiuga2@gmail.com</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>lober.sarah@gmx.de</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>+491715460531</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
@@ -1054,7 +1066,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1065,14 +1077,10 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Direct (ex student)</t>
-        </is>
-      </c>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1081,7 +1089,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1089,21 +1097,25 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>28-Oct-2024</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Originally booked in 2023</t>
-        </is>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
           <t>1</t>
@@ -1128,12 +1140,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Julie Hollard</t>
+          <t>Alina Iuga</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1143,7 +1155,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>hollardjulie@gmail.com</t>
+          <t>alinaiuga2@gmail.com</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -1161,7 +1173,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1171,7 +1183,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1190,25 +1202,21 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>26-Oct-2024</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
           <t>2350</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Originally booked in 2023</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
           <t>1</t>
@@ -1233,12 +1241,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dani Bass</t>
+          <t>Julie Hollard</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1248,15 +1256,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dani.bass@btinternet.com</t>
+          <t>hollardjulie@gmail.com</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1270,7 +1274,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1296,28 +1300,28 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>26-Oct-2024</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Bank transfer made</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
           <t>1</t>
@@ -1342,12 +1346,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vyla Carter</t>
+          <t>Dani Bass</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1355,17 +1359,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dani.bass@btinternet.com</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1392,31 +1404,31 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>14-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
+          <t>Bank transfer made</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1443,12 +1455,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Katrina Di</t>
+          <t>Vyla Carter</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1456,25 +1468,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Katrinadin@gmail.com</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1501,12 +1505,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2746.24</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1517,19 +1521,15 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>additional night on the 16th of February</t>
+          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1556,17 +1556,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 4</t>
+          <t>Samin Yoga Gp 5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1653,12 +1653,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 3</t>
+          <t>Samin Yoga Gp 4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1719,7 +1719,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 2</t>
+          <t>Samin Yoga Gp 3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1847,17 +1847,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 5</t>
+          <t>Samin Yoga Gp 2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1913,7 +1913,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1944,12 +1944,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Samantha (with dghtr)</t>
+          <t>Katrina Di</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1957,12 +1957,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Katrinadin@gmail.com</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>+15202484721</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1999,18 +2011,18 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2746.24</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12-Oct-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -2020,7 +2032,11 @@
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>additional night on the 16th of February</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
           <t>1</t>
@@ -2045,12 +2061,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Veronika Schaller</t>
+          <t>Samantha (with dghtr)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2058,21 +2074,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Vroni.schaller@web.de</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2094,12 +2106,12 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2109,31 +2121,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>12-Oct-2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Vroni.schaller@web.de</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
           <t>1</t>
@@ -2158,12 +2162,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Amalia Sepan</t>
+          <t>Veronika Schaller</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2173,15 +2177,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2192,11 +2192,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Partner // Sharing Room</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>No</t>
@@ -2215,7 +2211,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2225,7 +2221,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2236,12 +2232,12 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1717.75</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2252,7 +2248,7 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2376,32 +2372,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Caroline Kohl</t>
+          <t>Jan Röttgen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0049 171 691 2356</t>
-        </is>
-      </c>
+          <t>Capeman2110@gmail.com</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2415,7 +2407,11 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2439,18 +2435,18 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5-Sep-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1717.75</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -2464,11 +2460,7 @@
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>caroline_kohl@web.de</t>
-        </is>
-      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
           <t>1</t>
@@ -2493,25 +2485,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Caroline Kohl</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>+49 171 691 2356</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2520,11 +2524,7 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2553,13 +2553,13 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>22-Sep-2024</t>
+          <t>5-Sep-2024</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -2573,7 +2573,11 @@
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
           <t>1</t>
@@ -2598,12 +2602,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jan Röttgen</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2611,20 +2615,12 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Capeman2110@gmail.com</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2635,7 +2631,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2645,7 +2641,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2656,23 +2652,23 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>22-Sep-2024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1717.75</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -2711,28 +2707,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pien Bergshoeff</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>Amalia Sepan</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>pienbergshoeff@gmail.com</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>+31621237804</t>
-        </is>
-      </c>
+          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Netherland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2742,10 +2738,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Partner // Sharing Room</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>No</t>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2769,28 +2769,28 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1262.38</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>26-Sep-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1487.62</t>
+          <t>1717.75</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2801,7 +2801,7 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
+          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2828,32 +2828,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Amy Sobocinski</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Pien Bergshoeff</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Amymsobocinski@gmail.com</t>
+          <t>pienbergshoeff@gmail.com</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+14102994767</t>
+          <t>+31621237804</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Netherland</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2874,7 +2870,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2895,23 +2891,23 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1262.38</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>01-Oct-2024</t>
+          <t>26-Sep-2024</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1487.62</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2920,7 +2916,11 @@
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
+        </is>
+      </c>
       <c r="Z23" t="inlineStr">
         <is>
           <t>1</t>
@@ -2945,12 +2945,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Brooke O'Connor</t>
+          <t>Amy Sobocinski</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2960,11 +2960,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>bgoc2013@icloud.com</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+          <t>Amymsobocinski@gmail.com</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>+14102994767</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2972,7 +2980,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2999,7 +3007,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -3009,18 +3017,18 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>17-Oct-2024</t>
+          <t>01-Oct-2024</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3054,12 +3062,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Chloe Holden</t>
+          <t>Brooke O'Connor</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3069,7 +3077,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>chloeholden1402@gmail.com</t>
+          <t>bgoc2013@icloud.com</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -3092,7 +3100,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3113,23 +3121,23 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>17-Oct-2024</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Bank transfer</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3137,11 +3145,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
@@ -3167,12 +3171,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maddison Ball</t>
+          <t>Chloe Holden</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3180,20 +3184,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>chloeholden1402@gmail.com</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>+44 7958 032112</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>+61487440313</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3209,12 +3213,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3230,27 +3234,35 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
@@ -3266,22 +3278,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nathalia Ramirez</t>
+          <t>Maddison Ball</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3289,16 +3301,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>nathy924@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>+44 7958 032112</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3306,11 +3322,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>No</t>
@@ -3323,7 +3335,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3344,7 +3356,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>10-Aug-2024</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3355,28 +3367,20 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank transfer</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
-        </is>
-      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
@@ -3393,12 +3397,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Gabriel Campaner Bascuñana</t>
+          <t>Ben McDonald-Stuart</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3406,20 +3410,16 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>GabrielCampanerCoach@gmail.com</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>3460387145</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3428,17 +3428,17 @@
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3452,24 +3452,32 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>20-Sep</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>Hold until 29.10</t>
-        </is>
-      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
           <t>2</t>
@@ -3494,12 +3502,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nicole Dubinin</t>
+          <t>Maud CAMBON</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3509,11 +3517,15 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nicoledubinin9@gmail.com</t>
+          <t>maud.34.cambon@gmail.com</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -3521,7 +3533,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -3548,37 +3560,33 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.1</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>16 October 2024</t>
+          <t>6-November-2024</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2367.9</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
           <t>2</t>
@@ -3603,12 +3611,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kristhianne Cid de León </t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3616,12 +3624,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>laurawilstrup@gmail.com</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3630,27 +3642,15 @@
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
           <t>2100</t>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>3-November-2024</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -3672,18 +3672,14 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
-        </is>
-      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
           <t>2</t>
@@ -3708,12 +3704,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jessica Eryeti Dy</t>
+          <t>Freya Pye</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3723,7 +3719,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>jessicaedy.work@gmail.com</t>
+          <t>freya.pye8@gmail.com</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -3772,7 +3768,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>7-Sep-2024</t>
+          <t>1 November 2024</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -3783,16 +3779,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
           <t>2</t>
@@ -3817,12 +3809,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ben McDonald-Stuart</t>
+          <t>Gabriel Campaner Bascuñana</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3830,16 +3822,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3460387145</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3848,7 +3844,11 @@
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>20-Sep</t>
+          <t>2 November 2024</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -3888,14 +3888,10 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
@@ -3922,29 +3918,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jonathan Saldarriaga</t>
+          <t>Nicole Dubinin</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Jonathan0391@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>+4917664828174</t>
-        </is>
-      </c>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
@@ -3956,11 +3948,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>No</t>
@@ -3994,7 +3982,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>16 October 2024</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -4008,13 +3996,13 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="Z33" t="inlineStr">
         <is>
           <t>2</t>
@@ -4039,12 +4027,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t xml:space="preserve">Kristhianne Cid de León </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4054,11 +4042,7 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4069,11 +4053,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>No</t>
@@ -4105,21 +4085,29 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>10-Jul-2024</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+        </is>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
           <t>2</t>
@@ -4144,29 +4132,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t>Jessica Eryeti Dy</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>jessicaedy.work@gmail.com</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4174,11 +4162,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>No</t>
@@ -4191,7 +4175,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -4212,7 +4196,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>10-Sep</t>
+          <t>7-Sep-2024</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -4223,12 +4207,16 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+        </is>
+      </c>
       <c r="Z35" t="inlineStr">
         <is>
           <t>2</t>
@@ -4253,37 +4241,45 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Jonathan Saldarriaga</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Jonathan0391@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>+4917664828174</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>No</t>
@@ -4296,7 +4292,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -4307,7 +4303,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -4317,27 +4313,27 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
-        </is>
-      </c>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
           <t>2</t>
@@ -4362,12 +4358,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4377,7 +4373,11 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4385,10 +4385,14 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>No</t>
@@ -4412,7 +4416,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4424,7 +4428,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -4434,11 +4438,7 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
-        </is>
-      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
           <t>2</t>
@@ -4463,22 +4463,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t>Asaf kehati</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4489,7 +4493,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>No</t>
@@ -4521,7 +4529,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>10-Sep</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -4560,12 +4572,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kanan</t>
+          <t>Carly Murphy</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4577,7 +4589,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4607,28 +4619,44 @@
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>10-Aug-2024</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Booking done in early Aug but updated the sheet late</t>
+        </is>
+      </c>
       <c r="Z39" t="inlineStr">
         <is>
           <t>2</t>
@@ -4653,12 +4681,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4666,21 +4694,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>maren.refert@gmx.com</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -4691,12 +4715,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4707,7 +4731,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4715,25 +4739,25 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>21 Sep 2024</t>
-        </is>
-      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+        </is>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
           <t>2</t>
@@ -4758,12 +4782,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Anna Stubbs</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4773,11 +4797,7 @@
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4785,7 +4805,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -4812,7 +4832,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4820,15 +4840,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>19-Aug-2024</t>
-        </is>
-      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -4863,12 +4879,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t>Kanan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4876,21 +4892,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -4906,48 +4922,32 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>399.31</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>21-Aug-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>1700.69</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
           <t>2</t>
@@ -4962,28 +4962,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bethany Bradbury</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>Maren Refert</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>bethanymbradbury@gmail.com</t>
+          <t>maren.refert@gmx.com</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -4995,11 +4999,15 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -5011,10 +5019,14 @@
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -5024,13 +5036,13 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>21 Sep 2024</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -5038,43 +5050,39 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jéssica Schleiermacher</t>
+          <t>Anna Stubbs</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5082,16 +5090,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>jessicasimiro@gmail.com</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5100,7 +5108,11 @@
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5108,7 +5120,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -5129,7 +5141,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -5140,46 +5152,42 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tanya Mistry</t>
+          <t>Ulrike Maier</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5189,19 +5197,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>919820611611</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -5209,11 +5209,15 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5221,7 +5225,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5232,71 +5236,67 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399.31</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>31-Aug-2024</t>
+          <t>21-Aug-2024</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700.69</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Stripe</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Janiya Runaya (DS Ref)</t>
+          <t>Nathalia Ramirez</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5304,36 +5304,52 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>nathy924@hotmail.com</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -5343,27 +5359,39 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
+        </is>
+      </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -5380,12 +5408,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
+          <t>Janiya Runaya (DS Ref)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5403,7 +5431,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -5422,7 +5450,7 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -5432,13 +5460,13 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>28-Sep</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -5469,18 +5497,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Gwen Deitz</t>
+          <t>Bethany Bradbury</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>gwendeitz3611@gmail.com</t>
+          <t>bethanymbradbury@gmail.com</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -5492,18 +5520,26 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -5513,13 +5549,13 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>10-Oct-2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -5527,7 +5563,11 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
@@ -5554,12 +5594,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wahiba-YB</t>
+          <t>Jéssica Schleiermacher</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5567,36 +5607,44 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>jessicasimiro@gmail.com</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5606,17 +5654,25 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
@@ -5643,12 +5699,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rumera Ash-REF</t>
+          <t>Tanya Mistry</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5656,12 +5712,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>919820611611</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5673,16 +5741,20 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr">
         <is>
           <t>2750</t>
@@ -5695,7 +5767,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>12-Aug</t>
+          <t>31-Aug-2024</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -5704,9 +5776,21 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
@@ -5732,25 +5816,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Lisa</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>Gwen Deitz</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>gwendeitz3611@gmail.com</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5758,26 +5842,10 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -5792,7 +5860,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>10-Oct-2024</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -5803,7 +5871,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -5833,17 +5901,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Sunita (DS Ref)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -5859,16 +5927,8 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -5893,7 +5953,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>1-Sep</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -5902,11 +5962,7 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -5934,45 +5990,49 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Monica Milillo</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>monicamilillo02@gmail.com</t>
-        </is>
-      </c>
+          <t>Wahiba daughter-YB</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -5982,20 +6042,16 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>8-Sep-2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -6023,12 +6079,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB</t>
+          <t>Wahiba-YB</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6102,22 +6158,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ellie Walters</t>
+          <t>Rumera Ash-REF</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6125,21 +6181,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -6151,18 +6203,14 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -6172,61 +6220,49 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>4-Sep-2024</t>
+          <t>12-Aug</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mia</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6234,16 +6270,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>miavisualdesign@gmail.com</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6251,20 +6283,28 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
           <t>2100</t>
@@ -6272,72 +6312,68 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>9-Jul-2024</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
-        </is>
-      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -6348,11 +6384,19 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6361,11 +6405,7 @@
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
           <t>2100</t>
@@ -6378,7 +6418,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>15-Sep</t>
+          <t>9-Jul-2024</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -6387,57 +6427,57 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>Monica Milillo</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>monicamilillo02@gmail.com</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -6449,20 +6489,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
           <t>2750</t>
@@ -6475,7 +6507,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>8-Sep-2024</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -6484,18 +6516,22 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
@@ -6704,22 +6740,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>May 14, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>June 04, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
+          <t>Mosana Wahibi Rekhi-YB</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6727,29 +6763,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Mgomezjattin95@gmail.com</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6757,7 +6789,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -6768,67 +6800,59 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>1699.43</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>27-Aug</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>400.57</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
-        </is>
-      </c>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>May 14, 2025 to June 04, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
+          <t>Ylenia Votano</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -6840,7 +6864,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6850,15 +6874,11 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6869,11 +6889,7 @@
           <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>No</t>
@@ -6881,7 +6897,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -6891,13 +6907,13 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>11-Oct-2024</t>
+          <t>15-Sep</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -6906,34 +6922,34 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
+          <t>Mehrnoosh Nazari</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6941,16 +6957,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>miavisualdesign@gmail.com</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -6959,86 +6975,78 @@
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>10-Jul</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
+        </is>
+      </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
+          <t>Ellie Walters</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7046,12 +7054,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>+19179388805</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
@@ -7060,26 +7068,30 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -7089,13 +7101,13 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>4-Sep-2024</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -7105,35 +7117,35 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+          <t>elliewalters98@gmail.com</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>May 14, 2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>June 04, 2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7143,7 +7155,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Melisa gomez jattin</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -7151,12 +7163,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>+491728129488</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Mgomezjattin95@gmail.com</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
@@ -7179,94 +7191,102 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>12 July 2024</t>
-        </is>
-      </c>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr"/>
+          <t>400.57</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>May 14, 2025 to June 04, 2025</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>August 05, 2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>August 26, 2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Lydia May Ward</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>paul33vigil@gmail.com</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -7280,12 +7300,24 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -7295,37 +7327,441 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>11-Oct-2024</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>August 05, 2025 to August 26, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>November 21, 2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>December 12, 2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Jaina Patel</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>10-Jul</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>November 21, 2025 to December 12, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Anatta Vela</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>+19179388805</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>28-May-2024</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Helena von Keller</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>+491728129488</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>12 July 2024</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Paul Vigil</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>01-May-2024</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
         <is>
           <t>PayPal</t>
         </is>
       </c>
-      <c r="W66" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr">
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
         <is>
           <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
+      <c r="Z70" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AA66" t="inlineStr">
+      <c r="AA70" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>

--- a/RYP data/ryp_student_database_200hr.xlsx
+++ b/RYP data/ryp_student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,28 +767,32 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>06-Nov-2024</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Doku</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>hold 08.11</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
           <t>1</t>
@@ -1199,14 +1203,14 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -3502,7 +3506,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3611,12 +3615,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Aya Reimann</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3626,7 +3630,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>laurawilstrup@gmail.com</t>
+          <t>ayareimann@gmail.com</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -3648,9 +3652,17 @@
           <t>Direct - paid w/t assist</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr">
         <is>
           <t>2100</t>
@@ -3663,7 +3675,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>3-November-2024</t>
+          <t>6-November-2024</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -3674,7 +3686,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -3704,12 +3716,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Freya Pye</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3719,7 +3731,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>freya.pye8@gmail.com</t>
+          <t>laurawilstrup@gmail.com</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -3735,19 +3747,15 @@
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3768,7 +3776,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>1 November 2024</t>
+          <t>3-November-2024</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -3784,7 +3792,11 @@
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Friends sharing the same room</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
           <t>2</t>
@@ -3809,29 +3821,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Gabriel Campaner Bascuñana</t>
+          <t>Freya Pye</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>3460387145</t>
-        </is>
-      </c>
+          <t>freya.pye8@gmail.com</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
@@ -3877,7 +3885,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2 November 2024</t>
+          <t>1 November 2024</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -3918,25 +3926,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nicole Dubinin</t>
+          <t>Gabriel Campaner Bascuñana</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3460387145</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
@@ -3982,7 +3994,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>16 October 2024</t>
+          <t>2 November 2024</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -3998,11 +4010,7 @@
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
           <t>2</t>
@@ -4027,12 +4035,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kristhianne Cid de León </t>
+          <t>Nicole Dubinin</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4040,12 +4048,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4066,7 +4078,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -4087,7 +4099,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>16 October 2024</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -4096,16 +4108,16 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+          <t>Nicoledubinin9@gmail.com</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4132,12 +4144,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jessica Eryeti Dy</t>
+          <t xml:space="preserve">Kristhianne Cid de León </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4145,16 +4157,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>jessicaedy.work@gmail.com</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4175,7 +4183,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -4196,7 +4204,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>7-Sep-2024</t>
+          <t>10-Jul-2024</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -4205,16 +4213,16 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4241,29 +4249,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jonathan Saldarriaga</t>
+          <t>Jessica Eryeti Dy</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Jonathan0391@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>+4917664828174</t>
-        </is>
-      </c>
+          <t>jessicaedy.work@gmail.com</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
@@ -4275,11 +4279,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>No</t>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>7-Sep-2024</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -4324,16 +4324,16 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+        </is>
+      </c>
       <c r="Z36" t="inlineStr">
         <is>
           <t>2</t>
@@ -4358,29 +4358,33 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Jonathan Saldarriaga</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Jonathan0391@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>+4917664828174</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4390,7 +4394,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4405,7 +4409,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -4424,7 +4428,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>28 September 2024</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
@@ -4433,10 +4441,14 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
@@ -4463,17 +4475,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4495,7 +4507,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4529,11 +4541,7 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>10-Sep</t>
-        </is>
-      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -4572,24 +4580,24 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Asaf kehati</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4599,10 +4607,14 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>No</t>
@@ -4626,7 +4638,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -4636,13 +4648,13 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>10-Sep</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -4652,11 +4664,7 @@
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
           <t>2</t>
@@ -4681,12 +4689,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Carly Murphy</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4696,7 +4704,11 @@
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4731,7 +4743,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4739,11 +4751,15 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>10-Aug-2024</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -4755,7 +4771,7 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+          <t>Booking done in early Aug but updated the sheet late</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -4782,12 +4798,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4805,7 +4821,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -4832,7 +4848,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4844,7 +4860,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -4854,7 +4870,11 @@
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
           <t>2</t>
@@ -4879,12 +4899,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kanan</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4894,11 +4914,7 @@
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4906,7 +4922,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -4926,25 +4942,33 @@
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -4972,12 +4996,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Kanan</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4985,21 +5009,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>maren.refert@gmx.com</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -5010,46 +5034,34 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>21 Sep 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -5077,12 +5089,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Anna Stubbs</t>
+          <t>Maren Refert</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5090,21 +5102,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>maren.refert@gmx.com</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -5115,12 +5127,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -5131,7 +5143,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -5141,18 +5153,18 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>19-Aug-2024</t>
+          <t>21 Sep 2024</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -5182,12 +5194,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t>Anna Stubbs</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5195,21 +5207,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -5225,7 +5237,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5236,23 +5248,23 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>399.31</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>21-Aug-2024</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>1700.69</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -5262,11 +5274,7 @@
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
           <t>2</t>
@@ -5291,12 +5299,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nathalia Ramirez</t>
+          <t>Ulrike Maier</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5306,7 +5314,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>nathy924@hotmail.com</t>
+          <t>maier.ulrike64@gmx.de</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -5321,11 +5329,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>No</t>
@@ -5338,7 +5342,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -5354,34 +5358,30 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399.31</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>21-Aug-2024</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1700.69</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
+          <t>maier.ulrike64@gmx.de</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -5398,22 +5398,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Janiya Runaya (DS Ref)</t>
+          <t>Nathalia Ramirez</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5421,36 +5421,52 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>nathy924@hotmail.com</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -5460,27 +5476,39 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
+        </is>
+      </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -5497,25 +5525,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bethany Bradbury</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>bethanymbradbury@gmail.com</t>
-        </is>
-      </c>
+          <t>Janiya Runaya (DS Ref)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5532,7 +5560,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5549,7 +5577,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>28-Sep</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -5558,16 +5586,8 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
@@ -5594,22 +5614,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jéssica Schleiermacher</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Bethany Bradbury</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>jessicasimiro@gmail.com</t>
+          <t>bethanymbradbury@gmail.com</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -5628,7 +5644,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -5637,11 +5653,7 @@
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
           <t>2750</t>
@@ -5654,7 +5666,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -5699,12 +5711,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tanya Mistry</t>
+          <t>Jéssica Schleiermacher</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5714,19 +5726,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>919820611611</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>jessicasimiro@gmail.com</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -5767,7 +5771,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>31-Aug-2024</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -5778,7 +5782,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -5786,11 +5790,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
+      <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
@@ -5816,22 +5816,34 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Gwen Deitz</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>Tanya Mistry</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>gwendeitz3611@gmail.com</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>919820611611</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -5839,18 +5851,30 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5860,22 +5884,30 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>10-Oct-2024</t>
+          <t>31-Aug-2024</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
@@ -5901,25 +5933,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>Gwen Deitz</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>gwendeitz3611@gmail.com</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5929,16 +5961,8 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -5953,7 +5977,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>10-Oct-2024</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -5962,7 +5986,11 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -5990,12 +6018,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB</t>
+          <t>Sunita (DS Ref)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -6042,7 +6070,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>1-Sep</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -6079,12 +6107,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wahiba-YB</t>
+          <t>Wahiba daughter-YB</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6168,12 +6196,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rumera Ash-REF</t>
+          <t>Wahiba-YB</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6191,7 +6219,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -6210,7 +6238,7 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -6220,13 +6248,13 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>12-Aug</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -6257,12 +6285,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Rumera Ash-REF</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6280,19 +6308,11 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -6307,7 +6327,7 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -6317,20 +6337,16 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>12-Aug</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -6358,17 +6374,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -6386,7 +6402,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -6459,45 +6475,57 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Monica Milillo</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>monicamilillo02@gmail.com</t>
-        </is>
-      </c>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -6507,18 +6535,18 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>8-Sep-2024</t>
+          <t>9-Jul-2024</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -6538,12 +6566,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6553,21 +6581,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Samantha Foster</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>Monica Milillo</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>monicamilillo02@gmail.com</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -6582,20 +6606,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instagram </t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
           <t>2750</t>
@@ -6608,7 +6624,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>18-Aug-2024</t>
+          <t>8-Sep-2024</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -6617,26 +6633,22 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
-        </is>
-      </c>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
@@ -6653,12 +6665,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Julia Ben-YB</t>
+          <t>Samantha Foster</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6670,12 +6682,12 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -6692,7 +6704,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -6713,7 +6725,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>18-Aug-2024</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -6723,9 +6735,17 @@
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
+        </is>
+      </c>
       <c r="Z60" t="inlineStr">
         <is>
           <t>4</t>
@@ -6750,12 +6770,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
+          <t>Julia Ben-YB</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6767,7 +6787,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6789,7 +6809,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -6847,12 +6867,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Mosana Wahibi Rekhi-YB</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -6864,7 +6884,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6874,7 +6894,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -6897,7 +6917,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -6907,13 +6927,13 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>15-Sep</t>
+          <t>27-Aug</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -6944,12 +6964,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mehrnoosh Nazari</t>
+          <t>Ylenia Votano</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6957,16 +6977,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>miavisualdesign@gmail.com</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -6981,7 +7001,11 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -6995,28 +7019,24 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>15-Sep</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
-        </is>
-      </c>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
           <t>4</t>
@@ -7041,12 +7061,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Ellie Walters</t>
+          <t>Mehrnoosh Nazari</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7056,7 +7076,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>elliewalters98@gmail.com</t>
+          <t>miavisualdesign@gmail.com</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -7075,14 +7095,10 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -7096,34 +7112,26 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>4-Sep-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>elliewalters98@gmail.com</t>
+          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7140,22 +7148,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>May 14, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>June 04, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
+          <t>Ellie Walters</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -7165,7 +7173,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mgomezjattin95@gmail.com</t>
+          <t>elliewalters98@gmail.com</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -7181,14 +7189,10 @@
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -7209,14 +7213,18 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>1699.43</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>4-Sep-2024</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>400.57</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -7226,35 +7234,35 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
+          <t>elliewalters98@gmail.com</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>May 14, 2025 to June 04, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>May 14, 2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>June 04, 2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7264,7 +7272,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
+          <t>Melisa gomez jattin</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -7272,21 +7280,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Mgomezjattin95@gmail.com</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -7302,14 +7310,10 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>No</t>
@@ -7317,49 +7321,57 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>11-Oct-2024</t>
-        </is>
-      </c>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+          <t>400.57</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
+        </is>
+      </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>May 14, 2025 to June 04, 2025</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>August 05, 2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>August 26, 2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7369,7 +7381,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
+          <t>Lydia May Ward</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -7381,7 +7393,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -7391,7 +7403,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -7412,17 +7424,17 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -7432,13 +7444,13 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>10-Jul</t>
+          <t>11-Oct-2024</t>
         </is>
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -7447,34 +7459,34 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>August 05, 2025 to August 26, 2025</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>November 21, 2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>December 12, 2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
+          <t>Jaina Patel</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7483,20 +7495,20 @@
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>+19179388805</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -7510,12 +7522,24 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -7525,39 +7549,27 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>10-Jul</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
-        </is>
-      </c>
+      <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>November 21, 2025 to December 12, 2025</t>
         </is>
       </c>
     </row>
@@ -7574,12 +7586,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Anatta Vela</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -7590,7 +7602,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>+491728129488</t>
+          <t>+19179388805</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -7601,7 +7613,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -7620,35 +7632,39 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>12 July 2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -7675,25 +7691,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Helena von Keller</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>paul33vigil@gmail.com</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>+491728129488</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
@@ -7721,47 +7737,148 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>12 July 2024</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr">
         <is>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Paul Vigil</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>01-May-2024</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr">
+        <is>
           <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="Z71" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AA70" t="inlineStr">
+      <c r="AA71" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>

--- a/RYP data/ryp_student_database_200hr.xlsx
+++ b/RYP data/ryp_student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AA87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,12 +704,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maryam Kargar</t>
+          <t>Julie Hollard</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -719,15 +719,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>maryamkargar23@gmail.com</t>
+          <t>hollardjulie@gmail.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -735,13 +731,13 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -762,7 +758,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -772,25 +768,21 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>06-Nov-2024</t>
+          <t>26-Oct-2024</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Doku</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
@@ -817,12 +809,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Patricia Vang Nielsen</t>
+          <t>Alina Iuga</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -832,15 +824,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Patriciavn884@gmail.com</t>
+          <t>alinaiuga2@gmail.com</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -848,7 +836,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -864,7 +852,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -875,39 +863,27 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>31-Oct-2024</t>
-        </is>
-      </c>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>she has a small injury in my right shoulder from an old yoga retreat</t>
+          <t>Originally booked in 2023</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -934,12 +910,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maria Stadler</t>
+          <t>Sarah Lober</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -947,12 +923,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>lober.sarah@gmx.de</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>+491715460531</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -968,14 +952,10 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1005,14 +985,10 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
@@ -1039,12 +1015,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sarah Lober</t>
+          <t>Maria Stadler</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1052,20 +1028,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>lober.sarah@gmx.de</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>+491715460531</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1081,10 +1049,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1114,10 +1086,14 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
@@ -1144,12 +1120,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Alina Iuga</t>
+          <t>Maryam Kargar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1159,11 +1135,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>alinaiuga2@gmail.com</t>
+          <t>maryamkargar23@gmail.com</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1171,7 +1151,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1187,7 +1167,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1198,29 +1178,37 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>06-Nov-2024</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Doku</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Originally booked in 2023</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
           <t>1</t>
@@ -1245,12 +1233,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Julie Hollard</t>
+          <t>Charlotte Elway</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1260,7 +1248,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>hollardjulie@gmail.com</t>
+          <t>cj.elway@icloud.com</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -1272,13 +1260,13 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1299,33 +1287,37 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>26-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Stripe</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr"/>
+          <t>Bank tf</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Bank transfer made</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>1</t>
@@ -1350,12 +1342,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dani Bass</t>
+          <t>Twinsa Patel</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1365,15 +1357,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dani.bass@btinternet.com</t>
+          <t>Twinsapatel@yahoo.com</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1381,7 +1369,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1395,11 +1383,7 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1408,31 +1392,35 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>08-Nov-2024</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Bank transfer made</t>
+          <t>Vegetarian Diet</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1459,12 +1447,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vyla Carter</t>
+          <t>Thais Strbac</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1519,7 +1507,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>14-Oct-2024</t>
+          <t>08-Nov-2024</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1531,11 +1519,7 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
           <t>1</t>
@@ -1560,17 +1544,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 5</t>
+          <t>DS group 1 (NZ)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1583,7 +1567,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1610,7 +1594,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1620,13 +1604,13 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>10-Nov</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1657,12 +1641,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 4</t>
+          <t>DS group 2 (NZ)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1680,7 +1664,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1707,7 +1691,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1717,13 +1701,13 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>10-Nov</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1754,12 +1738,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 3</t>
+          <t>DS group 3 (NZ)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1814,7 +1798,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>10-Nov</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
@@ -1851,12 +1835,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 2</t>
+          <t>DS group 4 (NZ)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1911,7 +1895,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>10-Nov</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1948,12 +1932,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Katrina Di</t>
+          <t>Yana Stefanova</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1963,19 +1947,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Katrinadin@gmail.com</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>+15202484721</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>yanastefanova5@gmail.com</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1983,7 +1959,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -2010,23 +1986,19 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2746.24</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>14-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -2038,7 +2010,7 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>additional night on the 16th of February</t>
+          <t>Hold until 13 Nov. currently treating a hip discomfort, the root cause of which is yet to be identified, so far doctors do not see any major problem.</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2065,12 +2037,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Samantha (with dghtr)</t>
+          <t>Lydia Harris</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2078,17 +2050,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>lydiaharris4554@outlook.com</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2099,14 +2079,10 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2115,31 +2091,31 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12-Oct-2024</t>
+          <t>11-Nov-2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
@@ -2166,12 +2142,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Veronika Schaller</t>
+          <t>Mara Mccurdy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2181,7 +2157,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vroni.schaller@web.de</t>
+          <t>maramccurdy22@gmail.com</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -2215,7 +2191,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2225,34 +2201,22 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>22-Aug-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Vroni.schaller@web.de</t>
+          <t>Hold Nov 15 // Gluten free (celiac) // She's currently healing from ligament injury on her left ankle and right knee, but she confirmed that it won't affect the training including the hike</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2279,12 +2243,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 1</t>
+          <t>Dani Bass</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2292,17 +2256,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dani.bass@btinternet.com</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2329,29 +2301,33 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>13-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Bank transfer made</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>1</t>
@@ -2376,33 +2352,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jan Röttgen</t>
+          <t>Vyla Carter</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Capeman2110@gmail.com</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2439,32 +2407,28 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1717.75</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
+        </is>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
           <t>1</t>
@@ -2489,12 +2453,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Caroline Kohl</t>
+          <t>Patricia Vang Nielsen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2504,17 +2468,13 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>+49 171 691 2356</t>
-        </is>
-      </c>
+          <t>Patriciavn884@gmail.com</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2528,7 +2488,11 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2557,7 +2521,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5-Sep-2024</t>
+          <t>31-Oct-2024</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2568,7 +2532,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2579,7 +2543,7 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
+          <t>she has a small injury in my right shoulder from an old yoga retreat</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2606,12 +2570,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Stratos - YTC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2629,13 +2593,13 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2645,7 +2609,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2656,7 +2620,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2666,25 +2630,17 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>22-Sep-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>3800</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
@@ -2711,12 +2667,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Amalia Sepan</t>
+          <t>Veronika Schaller</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2726,15 +2682,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2745,11 +2697,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Partner // Sharing Room</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>No</t>
@@ -2768,7 +2716,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2778,7 +2726,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2789,12 +2737,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1717.75</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2805,7 +2753,7 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2832,28 +2780,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pien Bergshoeff</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>Amalia Sepan</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>pienbergshoeff@gmail.com</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>+31621237804</t>
-        </is>
-      </c>
+          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Netherland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2863,10 +2811,14 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Partner // Sharing Room</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>No</t>
@@ -2874,7 +2826,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2890,28 +2842,28 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1262.38</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>26-Sep-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1487.62</t>
+          <t>1717.75</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2922,7 +2874,7 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
+          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -2949,12 +2901,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Amy Sobocinski</t>
+          <t>Katrina Di</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2964,12 +2916,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Amymsobocinski@gmail.com</t>
+          <t>Katrinadin@gmail.com</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>+14102994767</t>
+          <t>+15202484721</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3016,32 +2968,32 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2746.24</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>01-Oct-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>additional night on the 16th of February</t>
+        </is>
+      </c>
       <c r="Z24" t="inlineStr">
         <is>
           <t>1</t>
@@ -3066,12 +3018,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Brooke O'Connor</t>
+          <t>Caroline Kohl</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3081,11 +3033,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>bgoc2013@icloud.com</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>+49 171 691 2356</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -3097,11 +3057,7 @@
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3130,7 +3086,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>17-Oct-2024</t>
+          <t>5-Sep-2024</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3141,7 +3097,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3150,7 +3106,11 @@
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="Z25" t="inlineStr">
         <is>
           <t>1</t>
@@ -3175,33 +3135,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Chloe Holden</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>chloeholden1402@gmail.com</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>+61487440313</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3212,17 +3164,17 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3233,28 +3185,28 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>22-Sep-2024</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -3262,11 +3214,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
@@ -3391,56 +3339,64 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ben McDonald-Stuart</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Pien Bergshoeff</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>pienbergshoeff@gmail.com</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>+31621237804</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Netherland</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3451,28 +3407,28 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1262.38</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>20-Sep</t>
+          <t>26-Sep-2024</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1487.62</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3481,37 +3437,41 @@
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
+        </is>
+      </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Maud CAMBON</t>
+          <t>Amy Sobocinski</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3521,13 +3481,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>maud.34.cambon@gmail.com</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Amymsobocinski@gmail.com</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>+14102994767</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>US</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3569,72 +3533,80 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>382.1</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>6-November-2024</t>
+          <t>01-Oct-2024</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2367.9</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Aya Reimann</t>
+          <t>Jan Röttgen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ayareimann@gmail.com</t>
+          <t>Capeman2110@gmail.com</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -3646,15 +3618,19 @@
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -3670,18 +3646,18 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>6-November-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1717.75</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -3689,39 +3665,43 @@
           <t>PayPal</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Chloe Holden</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3731,10 +3711,14 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>laurawilstrup@gmail.com</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>chloeholden1402@gmail.com</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>+61487440313</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -3747,7 +3731,11 @@
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -3755,7 +3743,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3771,18 +3759,18 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>3-November-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -3790,43 +3778,47 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>Friends sharing the same room</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Freya Pye</t>
+          <t>Samantha (with dghtr)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3834,21 +3826,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>freya.pye8@gmail.com</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -3875,7 +3863,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3885,74 +3873,66 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>1 November 2024</t>
+          <t>12-Oct-2024</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Gabriel Campaner Bascuñana</t>
+          <t>Samin Yoga Gp 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>3460387145</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3994,7 +3974,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2 November 2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -4003,44 +3983,40 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nicole Dubinin</t>
+          <t>Samin Yoga Gp 2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4048,16 +4024,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4099,7 +4071,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>16 October 2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -4108,48 +4080,40 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kristhianne Cid de León </t>
+          <t>Samin Yoga Gp 3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4183,7 +4147,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -4204,7 +4168,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -4214,47 +4178,39 @@
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
-        </is>
-      </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jessica Eryeti Dy</t>
+          <t>Samin Yoga Gp 4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4262,21 +4218,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>jessicaedy.work@gmail.com</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -4303,7 +4255,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -4313,74 +4265,62 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>7-Sep-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jonathan Saldarriaga</t>
+          <t>Brooke O'Connor</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Jonathan0391@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>+4917664828174</t>
-        </is>
-      </c>
+          <t>bgoc2013@icloud.com</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -4392,11 +4332,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>No</t>
@@ -4430,7 +4366,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>17-Oct-2024</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -4441,7 +4377,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Bank transfer</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -4453,12 +4389,12 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
@@ -4475,29 +4411,33 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Gabriel Campaner Bascuñana</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3460387145</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4505,11 +4445,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>No</t>
@@ -4522,7 +4458,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -4541,7 +4477,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2 November 2024</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -4550,7 +4490,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -4580,29 +4520,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t>Freya Pye</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>freya.pye8@gmail.com</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4610,11 +4550,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>No</t>
@@ -4627,7 +4563,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -4648,7 +4584,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>10-Sep</t>
+          <t>1 November 2024</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -4659,7 +4595,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -4689,12 +4625,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4702,32 +4638,28 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>laurawilstrup@gmail.com</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4743,7 +4675,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4753,25 +4685,25 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>3-November-2024</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
+          <t>Friends sharing the same room</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -4798,12 +4730,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Aya Reimann</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4811,28 +4743,28 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ayareimann@gmail.com</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4848,7 +4780,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4856,11 +4788,15 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>6-November-2024</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -4870,11 +4806,7 @@
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
-        </is>
-      </c>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
           <t>2</t>
@@ -4899,12 +4831,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t>Maud CAMBON</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4912,17 +4844,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>maud.34.cambon@gmail.com</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -4938,7 +4878,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -4949,19 +4889,23 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>382.1</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>6-November-2024</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2367.9</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -4996,12 +4940,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kanan</t>
+          <t>Rubiya (REf DS)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5011,11 +4955,7 @@
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -5023,15 +4963,11 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5039,26 +4975,30 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -5089,12 +5029,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5104,10 +5044,14 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>maren.refert@gmx.com</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>daunasdiane@gmail.com</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>+971 557104954</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -5120,14 +5064,10 @@
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5153,7 +5093,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>21 Sep 2024</t>
+          <t>11 November 2024</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -5169,7 +5109,11 @@
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>I have an old tendinitis in my left shoulder, though it hasn’t caused any issues for a few years now. Additionally, I manage a hormonal imbalance that requires me to rest adequately, but I am prepared for the retreat’s intensive schedule.</t>
+        </is>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
           <t>2</t>
@@ -5194,12 +5138,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Anna Stubbs</t>
+          <t>Christina Demissi</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5207,16 +5151,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>christina.demissi@gmail.com</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5237,7 +5181,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5258,7 +5202,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>19-Aug-2024</t>
+          <t>9 November 2024</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -5269,10 +5213,14 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
@@ -5299,12 +5247,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t>Petroni Issa (Ref DS)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5312,16 +5260,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5330,11 +5274,7 @@
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5342,7 +5282,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -5358,32 +5298,20 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>399.31</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>21-Aug-2024</t>
-        </is>
-      </c>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1700.69</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
           <t>2</t>
@@ -5408,12 +5336,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nathalia Ramirez</t>
+          <t>Rohila Titha Agoni (Ref DS)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5421,16 +5349,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>nathy924@hotmail.com</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5438,16 +5362,8 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5474,33 +5390,17 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>28 September 2024</t>
-        </is>
-      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
-        </is>
-      </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
           <t>2</t>
@@ -5515,22 +5415,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Janiya Runaya (DS Ref)</t>
+          <t>Nicole Dubinin</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5538,36 +5438,48 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -5577,58 +5489,74 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>16 October 2024</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bethany Bradbury</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>Pauline Andre</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>bethanymbradbury@gmail.com</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>pauline.andre17490@gmail.com</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>+971 523243816</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
@@ -5637,14 +5565,18 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -5653,10 +5585,14 @@
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5666,13 +5602,13 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>9 November 2024</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -5680,43 +5616,43 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>I broke a rib at the end of September 2024, but it is currently healing and should be perfectly healed for the yoga program in February 2024.</t>
+        </is>
+      </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jéssica Schleiermacher</t>
+          <t xml:space="preserve">Kristhianne Cid de León </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5724,25 +5660,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>jessicasimiro@gmail.com</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5750,7 +5686,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -5761,7 +5697,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -5771,57 +5707,57 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>10-Jul-2024</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+        </is>
+      </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tanya Mistry</t>
+          <t>Carly Murphy</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5829,24 +5765,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>919820611611</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5855,7 +5783,11 @@
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5863,7 +5795,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -5884,7 +5816,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>31-Aug-2024</t>
+          <t>10-Aug-2024</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -5895,63 +5827,63 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Stripe</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>Booking done in early Aug but updated the sheet late</t>
+        </is>
+      </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Gwen Deitz</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>gwendeitz3611@gmail.com</t>
-        </is>
-      </c>
+          <t>Ben McDonald-Stuart</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5961,10 +5893,22 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr">
         <is>
           <t>2100</t>
@@ -5977,7 +5921,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>10-Oct-2024</t>
+          <t>20-Sep</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -5988,42 +5932,46 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
+          <t>Ulrike Maier</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -6031,12 +5979,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6045,19 +5997,27 @@
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q53" t="inlineStr">
         <is>
           <t>2100</t>
@@ -6065,54 +6025,62 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399.31</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>21-Aug-2024</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr"/>
+          <t>1700.69</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB</t>
+          <t>Anna Stubbs</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6122,7 +6090,11 @@
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -6130,14 +6102,18 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6146,10 +6122,14 @@
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -6159,49 +6139,53 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wahiba-YB</t>
+          <t>Maren Refert</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6209,12 +6193,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>maren.refert@gmx.com</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6223,7 +6211,11 @@
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -6231,11 +6223,15 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr">
         <is>
           <t>2100</t>
@@ -6248,7 +6244,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>21 Sep 2024</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -6257,40 +6253,44 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rumera Ash-REF</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6308,14 +6308,18 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -6324,10 +6328,14 @@
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -6335,51 +6343,51 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>12-Aug</t>
-        </is>
-      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6397,14 +6405,10 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>No</t>
@@ -6412,7 +6416,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6421,10 +6425,14 @@
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6432,15 +6440,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>9-Jul-2024</t>
-        </is>
-      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -6450,47 +6454,55 @@
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+        </is>
+      </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Kanan</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -6498,14 +6510,10 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>No</t>
@@ -6513,7 +6521,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6525,96 +6533,108 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>9-Jul-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Monica Milillo</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>monicamilillo02@gmail.com</t>
-        </is>
-      </c>
+          <t>Asaf kehati</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -6624,18 +6644,18 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>8-Sep-2024</t>
+          <t>10-Sep</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -6643,34 +6663,34 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Samantha Foster</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6682,21 +6702,29 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6704,7 +6732,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -6715,7 +6743,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -6723,59 +6751,51 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>18-Aug-2024</t>
-        </is>
-      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
-        </is>
-      </c>
+      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Julia Ben-YB</t>
+          <t>Nathalia Ramirez</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6783,25 +6803,33 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>nathy924@hotmail.com</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6809,7 +6837,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -6820,7 +6848,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -6830,75 +6858,99 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
+        </is>
+      </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
+          <t>Jonathan Saldarriaga</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Jonathan0391@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>+4917664828174</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6906,7 +6958,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -6917,7 +6969,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -6927,49 +6979,57 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Jessica Eryeti Dy</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6977,16 +7037,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>jessicaedy.work@gmail.com</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -6995,7 +7055,11 @@
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -7003,7 +7067,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -7024,7 +7088,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>15-Sep</t>
+          <t>7-Sep-2024</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -7033,40 +7097,48 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+        </is>
+      </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mehrnoosh Nazari</t>
+          <t>Sunita (DS Ref)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7074,16 +7146,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>miavisualdesign@gmail.com</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7095,16 +7163,16 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
           <t>2100</t>
@@ -7112,58 +7180,54 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>1-Sep</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
-        </is>
-      </c>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ellie Walters</t>
+          <t>Jéssica Schleiermacher</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -7173,7 +7237,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>elliewalters98@gmail.com</t>
+          <t>jessicasimiro@gmail.com</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -7185,14 +7249,14 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -7208,7 +7272,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -7218,13 +7282,13 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>4-Sep-2024</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -7238,41 +7302,37 @@
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>May 14, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>June 04, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
+          <t>Tanya Mistry</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -7282,11 +7342,19 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mgomezjattin95@gmail.com</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>919820611611</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -7294,15 +7362,11 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -7321,120 +7385,100 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>1699.43</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>31-Aug-2024</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>400.57</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>May 14, 2025 to June 04, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>Gwen Deitz</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>gwendeitz3611@gmail.com</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -7444,49 +7488,53 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>11-Oct-2024</t>
+          <t>10-Oct-2024</t>
         </is>
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
+          <t>Janiya Runaya (DS Ref)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7496,11 +7544,7 @@
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -7508,18 +7552,14 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -7527,19 +7567,11 @@
           <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -7549,13 +7581,13 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>10-Jul</t>
+          <t>28-Sep</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -7564,47 +7596,43 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>+19179388805</t>
-        </is>
-      </c>
+          <t>Bethany Bradbury</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>bethanymbradbury@gmail.com</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
@@ -7617,17 +7645,17 @@
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
@@ -7642,7 +7670,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
@@ -7658,45 +7686,41 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
-        </is>
-      </c>
+      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Wahiba daughter-YB</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -7705,15 +7729,11 @@
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>+491728129488</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -7722,123 +7742,111 @@
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>12 July 2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
-        </is>
-      </c>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Rumera Ash-REF</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>paul33vigil@gmail.com</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -7848,37 +7856,1641 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>12-Aug</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>March 21, 2025 to April 11, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>March 21, 2025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>April 11, 2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>9-Jul-2024</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr">
+      <c r="V72" t="inlineStr">
         <is>
           <t>PayPal</t>
         </is>
       </c>
-      <c r="W71" t="inlineStr">
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>March 21, 2025 to April 11, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>March 21, 2025</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>April 11, 2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>9-Jul-2024</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>March 21, 2025 to April 11, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>March 21, 2025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>April 11, 2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Monica Milillo</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>monicamilillo02@gmail.com</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>8-Sep-2024</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>March 21, 2025 to April 11, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>March 21, 2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>April 11, 2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Wahiba-YB</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>29-Aug</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>March 21, 2025 to April 11, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ellie Walters</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>4-Sep-2024</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Mehrnoosh Nazari</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>miavisualdesign@gmail.com</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Ylenia Votano</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>15-Sep</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Julia Ben-YB</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Direct - I was recommended to visit</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>27-Aug</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Samantha Foster</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instagram </t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>18-Aug-2024</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Mosana Wahibi Rekhi-YB</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>27-Aug</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>May 14, 2025</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>June 04, 2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Melisa gomez jattin</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Mgomezjattin95@gmail.com</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>400.57</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
         <is>
           <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr">
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>May 14, 2025 to June 04, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>August 05, 2025</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>August 26, 2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Lydia May Ward</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>11-Oct-2024</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>August 05, 2025 to August 26, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>November 21, 2025</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>December 12, 2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Jaina Patel</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10-Jul</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>November 21, 2025 to December 12, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Anatta Vela</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>+19179388805</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>28-May-2024</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Helena von Keller</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>+491728129488</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>12 July 2024</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Paul Vigil</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>01-May-2024</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
         <is>
           <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
+      <c r="Z87" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AA71" t="inlineStr">
+      <c r="AA87" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>
